--- a/adversarialVPR/human-study/human-study-pre-test/experiment3-identify-speaker/info.xlsx
+++ b/adversarialVPR/human-study/human-study-pre-test/experiment3-identify-speaker/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GolferChen.github.io\adversarialVPR\human-study\human-study-pre-test\experiment3-identify-speaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13EC0E4-ECF9-4FB6-811D-5A41248A5666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CFA9F5-972D-4420-919E-569CDE377586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +314,34 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -337,8 +365,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -679,14 +711,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="167" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
@@ -713,243 +745,243 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -964,7 +996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -988,243 +1022,243 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1239,7 +1273,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1264,243 +1298,243 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/adversarialVPR/human-study/human-study-pre-test/experiment3-identify-speaker/info.xlsx
+++ b/adversarialVPR/human-study/human-study-pre-test/experiment3-identify-speaker/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GolferChen.github.io\adversarialVPR\human-study\human-study-pre-test\experiment3-identify-speaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CFA9F5-972D-4420-919E-569CDE377586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA95904A-747F-4F0D-B719-9BD64D12D673}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,13 +712,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="167" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
@@ -997,10 +997,18 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="174.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1273,10 +1281,18 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="B3" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="173.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">

--- a/adversarialVPR/human-study/human-study-pre-test/experiment3-identify-speaker/info.xlsx
+++ b/adversarialVPR/human-study/human-study-pre-test/experiment3-identify-speaker/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GolferChen.github.io\adversarialVPR\human-study\human-study-pre-test\experiment3-identify-speaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA95904A-747F-4F0D-B719-9BD64D12D673}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B67B5B-DAF4-4AA2-8789-09CF991BD982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spk1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
   <si>
     <t>pair</t>
   </si>
@@ -295,13 +295,21 @@
   </si>
   <si>
     <t>D:\Git\GolferChen.github.io\adversarialVPR\human-study\human-study-pre-test\experiment3-identify-speaker\spk3\origin-6829-68769-0045.wav</t>
+  </si>
+  <si>
+    <t>cross-gender-amozon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amozon替换成gmm-0.001,和pair3 text重复，但可以argue:target label不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +352,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,12 +380,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -709,23 +725,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="167" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -765,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -785,7 +802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -805,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -825,7 +842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -845,7 +862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -865,7 +882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -885,7 +902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -905,7 +922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -925,7 +942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -944,8 +961,11 @@
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -965,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -983,6 +1003,9 @@
       </c>
       <c r="F13" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -994,23 +1017,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="174.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1050,7 +1074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
@@ -1070,7 +1094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -1090,7 +1114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1110,7 +1134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1130,7 +1154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1170,7 +1194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
@@ -1190,7 +1214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -1210,7 +1234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
@@ -1229,28 +1253,31 @@
       <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1278,23 +1305,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="173.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -1334,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>68</v>
       </c>
@@ -1354,7 +1382,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
@@ -1374,7 +1402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -1394,7 +1422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -1414,7 +1442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -1434,7 +1462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -1454,7 +1482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
@@ -1473,8 +1501,11 @@
       <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
@@ -1494,7 +1525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
@@ -1514,7 +1545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>87</v>
       </c>
@@ -1534,7 +1565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>89</v>
       </c>

--- a/adversarialVPR/human-study/human-study-pre-test/experiment3-identify-speaker/info.xlsx
+++ b/adversarialVPR/human-study/human-study-pre-test/experiment3-identify-speaker/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GolferChen.github.io\adversarialVPR\human-study\human-study-pre-test\experiment3-identify-speaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B67B5B-DAF4-4AA2-8789-09CF991BD982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304688FE-7064-4178-886B-F66979C4D878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spk1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
